--- a/Input/2022.xlsx
+++ b/Input/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24634\Desktop\Dashboard\Dashboard\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C080172A-9F53-48C2-AB4D-652FBA28A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD1A18F-E780-4F67-AFCE-D2650D2399EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4620" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2130" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Alter</t>
-  </si>
-  <si>
-    <t>100 und mehr</t>
   </si>
   <si>
     <t>Frauen</t>
@@ -367,8 +364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J94" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -378,10 +375,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1485,8 +1482,8 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>1</v>
+      <c r="A102" s="1">
+        <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>5193</v>
